--- a/nginxData.xlsx
+++ b/nginxData.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="更高的压测" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>nginx 1个进程，2个核心</t>
   </si>
@@ -89,22 +92,234 @@
   </si>
   <si>
     <t>128%-131%左右</t>
+  </si>
+  <si>
+    <t>不同的cacheway下nginx的性能</t>
+  </si>
+  <si>
+    <t>并发4000</t>
+  </si>
+  <si>
+    <t>cacheway</t>
+  </si>
+  <si>
+    <t>失败次数</t>
+  </si>
+  <si>
+    <t>负载情况</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>133%-135%</t>
+  </si>
+  <si>
+    <t>133%-138%</t>
+  </si>
+  <si>
+    <t>0x3f</t>
+  </si>
+  <si>
+    <t>129%-132%</t>
+  </si>
+  <si>
+    <t>0xfff</t>
+  </si>
+  <si>
+    <t>125%-128%</t>
+  </si>
+  <si>
+    <t>124%-128%</t>
+  </si>
+  <si>
+    <t>并发10000</t>
+  </si>
+  <si>
+    <t>128%-133%</t>
+  </si>
+  <si>
+    <t>123%-126%</t>
+  </si>
+  <si>
+    <t>不同内存带宽下nginx性能</t>
+  </si>
+  <si>
+    <t>内存带宽</t>
+  </si>
+  <si>
+    <t>160%-166%</t>
+  </si>
+  <si>
+    <t>124%-127%</t>
+  </si>
+  <si>
+    <t>124%-129%</t>
+  </si>
+  <si>
+    <t>160%-170%</t>
+  </si>
+  <si>
+    <t>122%-127%</t>
+  </si>
+  <si>
+    <t>每次请求平均处理时间</t>
+  </si>
+  <si>
+    <t>CPU负载情况</t>
+  </si>
+  <si>
+    <t>跨节点10%</t>
+  </si>
+  <si>
+    <t>一侧80%以上，带有ab程序的一侧70%多，总负载在160%左右</t>
+  </si>
+  <si>
+    <t>同节点10%</t>
+  </si>
+  <si>
+    <t>两个核心都是70%左右，总负载在150%-160%之间</t>
+  </si>
+  <si>
+    <t>nginx14，15，ab42</t>
+  </si>
+  <si>
+    <t>两个核都在80%以上，总负载在160%-165%之间</t>
+  </si>
+  <si>
+    <t>nginx14，15，ab9</t>
+  </si>
+  <si>
+    <t>两个核在75%左右，总负载在150%-160%之间</t>
+  </si>
+  <si>
+    <t>nginx14，28，ab42</t>
+  </si>
+  <si>
+    <t>一侧80%左右，一侧50-70%，总负载在130%-150%之间</t>
+  </si>
+  <si>
+    <t>nginx14，28，ab9</t>
+  </si>
+  <si>
+    <t>一侧80%多，一侧70%多。总负载在150%左右</t>
+  </si>
+  <si>
+    <t>nginx14,15,ab42,压测4000</t>
+  </si>
+  <si>
+    <t>nginx14,15,ab9,压测4000</t>
+  </si>
+  <si>
+    <t>nginx14,28,ab42,压测4000</t>
+  </si>
+  <si>
+    <t>nginx14,28,ab9,压测4000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张嘉禾</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>王俊杰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吴品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苑译元</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赵一凡</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -254,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +478,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,12 +669,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1F2329"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,138 +810,168 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1284,7 +1550,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1364,14 +1630,332 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="16384" width="25.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>76.235</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>154</v>
+      </c>
+      <c r="E6">
+        <v>159</v>
+      </c>
+      <c r="F6">
+        <v>1306</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>75.673</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>152</v>
+      </c>
+      <c r="E7">
+        <v>158</v>
+      </c>
+      <c r="F7">
+        <v>1241</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>75.757</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>153</v>
+      </c>
+      <c r="E8">
+        <v>159</v>
+      </c>
+      <c r="F8">
+        <v>1180</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>75.866</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>154</v>
+      </c>
+      <c r="E9">
+        <v>160</v>
+      </c>
+      <c r="F9">
+        <v>1184</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>76.009</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>154</v>
+      </c>
+      <c r="E10">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <v>1170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9">
+        <v>75.57</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>159</v>
+      </c>
+      <c r="F11">
+        <v>294</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>79.931</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>404</v>
+      </c>
+      <c r="E14">
+        <v>415</v>
+      </c>
+      <c r="F14">
+        <v>3411</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>79.533</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>402</v>
+      </c>
+      <c r="E15">
+        <v>412</v>
+      </c>
+      <c r="F15">
+        <v>3447</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>79.931</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>405</v>
+      </c>
+      <c r="E16">
+        <v>414</v>
+      </c>
+      <c r="F16">
+        <v>1453</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>79.614</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>404</v>
+      </c>
+      <c r="E17">
+        <v>413</v>
+      </c>
+      <c r="F17">
+        <v>1425</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>79.435</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>404</v>
+      </c>
+      <c r="E18">
+        <v>413</v>
+      </c>
+      <c r="F18">
+        <v>1424</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>80.017</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>407</v>
+      </c>
+      <c r="E19">
+        <v>416</v>
+      </c>
+      <c r="F19">
+        <v>1442</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1381,14 +1965,899 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="16384" width="25.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>75.457</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>107</v>
+      </c>
+      <c r="E5">
+        <v>130</v>
+      </c>
+      <c r="F5">
+        <v>3160</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>75.169</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>106</v>
+      </c>
+      <c r="E6">
+        <v>129</v>
+      </c>
+      <c r="F6">
+        <v>3171</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>75.416</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>154</v>
+      </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
+      <c r="F7">
+        <v>1192</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
+        <v>76.215</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>154</v>
+      </c>
+      <c r="E8">
+        <v>160</v>
+      </c>
+      <c r="F8">
+        <v>1278</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>76.048</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>154</v>
+      </c>
+      <c r="E9">
+        <v>160</v>
+      </c>
+      <c r="F9">
+        <v>1232</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>75.869</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>154</v>
+      </c>
+      <c r="E10">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <v>1230</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B14">
+        <v>78.454</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>137</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1170</v>
+      </c>
+      <c r="F14">
+        <v>15528</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B15">
+        <v>78.472</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>133</v>
+      </c>
+      <c r="E15">
+        <v>1162</v>
+      </c>
+      <c r="F15">
+        <v>15720</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B16">
+        <v>80.444</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>409</v>
+      </c>
+      <c r="E16">
+        <v>419</v>
+      </c>
+      <c r="F16">
+        <v>3411</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B17">
+        <v>80.614</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>410</v>
+      </c>
+      <c r="E17">
+        <v>421</v>
+      </c>
+      <c r="F17">
+        <v>3416</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>80.317</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>409</v>
+      </c>
+      <c r="E18">
+        <v>419</v>
+      </c>
+      <c r="F18">
+        <v>1419</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>80.457</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>410</v>
+      </c>
+      <c r="E19">
+        <v>420</v>
+      </c>
+      <c r="F19">
+        <v>3319</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="6" width="25.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="48.3333333333333" customWidth="1"/>
+    <col min="8" max="16384" width="25.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customHeight="1" spans="2:7">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>68.84</v>
+      </c>
+      <c r="C3">
+        <v>137.679</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>118</v>
+      </c>
+      <c r="F3">
+        <v>3169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>63.022</v>
+      </c>
+      <c r="C4">
+        <v>126.044</v>
+      </c>
+      <c r="D4">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>119</v>
+      </c>
+      <c r="F4">
+        <v>3157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>75.007</v>
+      </c>
+      <c r="C6">
+        <v>150.015</v>
+      </c>
+      <c r="D6">
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <v>131</v>
+      </c>
+      <c r="F6">
+        <v>3201</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>64.229</v>
+      </c>
+      <c r="C7">
+        <v>128.457</v>
+      </c>
+      <c r="D7">
+        <v>109</v>
+      </c>
+      <c r="E7">
+        <v>124</v>
+      </c>
+      <c r="F7">
+        <v>3166</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>72.36</v>
+      </c>
+      <c r="C8">
+        <v>144</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>116</v>
+      </c>
+      <c r="F8">
+        <v>7305</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>68.757</v>
+      </c>
+      <c r="C9">
+        <v>137</v>
+      </c>
+      <c r="D9">
+        <v>89</v>
+      </c>
+      <c r="E9">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>3165</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="16384" width="25.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customHeight="1" spans="2:6">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5">
+        <v>73.096</v>
+      </c>
+      <c r="C3" s="5">
+        <v>146.192</v>
+      </c>
+      <c r="D3" s="5">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5">
+        <v>89</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7315</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5">
+        <v>73.089</v>
+      </c>
+      <c r="C4" s="5">
+        <v>146.178</v>
+      </c>
+      <c r="D4" s="5">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5">
+        <v>86</v>
+      </c>
+      <c r="F4" s="5">
+        <v>7431</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5">
+        <v>72.869</v>
+      </c>
+      <c r="C5" s="5">
+        <v>145.738</v>
+      </c>
+      <c r="D5" s="5">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5">
+        <v>90</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7259</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="6">
+        <v>66.474</v>
+      </c>
+      <c r="C6" s="6">
+        <v>132.947</v>
+      </c>
+      <c r="D6" s="6">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6">
+        <v>99</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="6">
+        <v>66.809</v>
+      </c>
+      <c r="C7" s="6">
+        <v>133.617</v>
+      </c>
+      <c r="D7" s="6">
+        <v>79</v>
+      </c>
+      <c r="E7" s="6">
+        <v>99</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="6">
+        <v>66.658</v>
+      </c>
+      <c r="C8" s="6">
+        <v>133.317</v>
+      </c>
+      <c r="D8" s="6">
+        <v>72</v>
+      </c>
+      <c r="E8" s="6">
+        <v>99</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="7">
+        <v>72.015</v>
+      </c>
+      <c r="C9" s="8">
+        <v>144.03</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65</v>
+      </c>
+      <c r="E9" s="7">
+        <v>96</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="7">
+        <v>71.579</v>
+      </c>
+      <c r="C10" s="7">
+        <v>143.193</v>
+      </c>
+      <c r="D10" s="7">
+        <v>64</v>
+      </c>
+      <c r="E10" s="7">
+        <v>96</v>
+      </c>
+      <c r="F10" s="7">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7">
+        <v>71.441</v>
+      </c>
+      <c r="C11" s="7">
+        <v>142.881</v>
+      </c>
+      <c r="D11" s="7">
+        <v>62</v>
+      </c>
+      <c r="E11" s="7">
+        <v>93</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>71.002</v>
+      </c>
+      <c r="C12">
+        <v>142.004</v>
+      </c>
+      <c r="D12">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>91</v>
+      </c>
+      <c r="F12">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>70.516</v>
+      </c>
+      <c r="C13">
+        <v>141.031</v>
+      </c>
+      <c r="D13">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>88</v>
+      </c>
+      <c r="F13">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="9">
+        <v>70.14</v>
+      </c>
+      <c r="C14">
+        <v>140.28</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>89</v>
+      </c>
+      <c r="F14">
+        <v>3116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="15.15" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" ht="15.15" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" ht="15.15" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" ht="15.15" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" ht="15.15" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" ht="15.15" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" ht="15.15" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" ht="15.15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="C15" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
